--- a/database/du_lieu.xlsx
+++ b/database/du_lieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codegym\C0822G1_sprint_2\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25E99AC-1AC4-4AEB-9583-5AEC4314D226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C869CD-EE09-4C4B-9B7C-BAD8418B4F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>Jasmine đến thăm căn hộ của FOX ở Tokyo. Chính cô đã tiết lộ một sự thật chấn động liên quan đến vụ khủng bố tại sân bay…!! Cùng lúc đó, thế lực Bắc Mĩ của nhóm Robin đã thể hiện nhiều hoạt động đáng chú ý. Bước tiếp theo họ sẽ thực hiện là…!?</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/2d/b5/2d/2db52d85cc574aef02d1ba7d1e95c6f4.png</t>
+  </si>
+  <si>
+    <t>https://img1.kienthucvui.vn/uploads/2019/10/09/anh-dep-son-goku_042831973.png</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C789315E-573E-4A07-8773-8A370E3F6027}">
-  <dimension ref="D7:G22"/>
+  <dimension ref="D7:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:G22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1352,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="4:7">
+    <row r="17" spans="4:11">
       <c r="D17">
         <v>10</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="4:7">
+    <row r="18" spans="4:11">
       <c r="D18">
         <v>11</v>
       </c>
@@ -1380,7 +1386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="4:7">
+    <row r="19" spans="4:11">
       <c r="D19">
         <v>12</v>
       </c>
@@ -1394,7 +1400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="4:7">
+    <row r="20" spans="4:11">
       <c r="D20">
         <v>13</v>
       </c>
@@ -1408,7 +1414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="4:7">
+    <row r="21" spans="4:11">
       <c r="D21">
         <v>14</v>
       </c>
@@ -1422,7 +1428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="4:7">
+    <row r="22" spans="4:11">
       <c r="D22">
         <v>15</v>
       </c>
@@ -1433,6 +1439,160 @@
         <v>51</v>
       </c>
       <c r="G22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11">
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11">
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11">
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11">
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11">
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11">
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11">
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11">
+      <c r="D34">
+        <v>11</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11">
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11">
+      <c r="D36">
+        <v>13</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11">
+      <c r="D37">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11">
+      <c r="D38">
+        <v>15</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38">
         <v>12</v>
       </c>
     </row>
@@ -1446,6 +1606,19 @@
     <hyperlink ref="F20" r:id="rId6" xr:uid="{5F23FD8A-D6E1-4BF3-AC70-85FFC1BF95F5}"/>
     <hyperlink ref="F21" r:id="rId7" xr:uid="{A1CABE5A-6A10-488E-9035-82C3F752B787}"/>
     <hyperlink ref="F22" r:id="rId8" xr:uid="{BA6B6C7F-70F9-4F49-B9C0-0ED07B53C73E}"/>
+    <hyperlink ref="F25" r:id="rId9" xr:uid="{D0E6AA0B-F525-4EBB-9618-683B2A1B6669}"/>
+    <hyperlink ref="F26" r:id="rId10" xr:uid="{69762505-852E-454C-BE69-F6BCF26405D1}"/>
+    <hyperlink ref="F27" r:id="rId11" xr:uid="{2023D820-D7F3-45B8-8ECC-36344F076ED3}"/>
+    <hyperlink ref="F28" r:id="rId12" xr:uid="{989839BF-3265-4532-9A50-4D8B2547E573}"/>
+    <hyperlink ref="F29" r:id="rId13" xr:uid="{3DC21877-6530-4D67-95AF-6B4E8D4D76D2}"/>
+    <hyperlink ref="F30" r:id="rId14" xr:uid="{F0630D38-7F16-41CE-8C05-1B76E74C5B31}"/>
+    <hyperlink ref="F32" r:id="rId15" xr:uid="{567FA385-485E-4434-A9F8-D5A16624949D}"/>
+    <hyperlink ref="F33" r:id="rId16" xr:uid="{B3995F3D-9FB4-4F1E-A76B-99A2A64488C5}"/>
+    <hyperlink ref="F34" r:id="rId17" xr:uid="{DC360D04-8C72-4262-9056-BB85F1ED3EBF}"/>
+    <hyperlink ref="F35" r:id="rId18" xr:uid="{495663BD-FAFA-402D-AB61-1233A27E74C8}"/>
+    <hyperlink ref="F36" r:id="rId19" xr:uid="{9DFEFDD3-382C-48F0-A6BE-24938B4B96D2}"/>
+    <hyperlink ref="F37" r:id="rId20" xr:uid="{5055E67E-326C-4019-A3F5-8F655F91A7DC}"/>
+    <hyperlink ref="F38" r:id="rId21" xr:uid="{5C46F56B-AD9B-4D0B-A4B0-09130D3AFAB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
